--- a/data.xlsx
+++ b/data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quadir\Desktop\Machine Learning with Shoaib\Final_manuscript_ML_hardness\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quadir\Desktop\Machine Learning with Shoaib\Final_manuscript_ML_hardness\Open Ceramics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58373F0-6AD7-45AB-B406-2C47165C17E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D098DD-C4B1-40D9-83AB-4696BE56EC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26490" yWindow="30" windowWidth="22200" windowHeight="13995" xr2:uid="{612F9FBE-925F-4AA4-9105-992B3C5D4FE9}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="14805" windowHeight="13995" xr2:uid="{612F9FBE-925F-4AA4-9105-992B3C5D4FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Vickers Hardness" sheetId="3" r:id="rId1"/>
+    <sheet name=" Acronyms" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="71">
   <si>
     <t>Load (N)</t>
   </si>
@@ -215,12 +216,45 @@
   <si>
     <t>[30]</t>
   </si>
+  <si>
+    <t>Here, the acronyms used in the article</t>
+  </si>
+  <si>
+    <t>few-layer graphene nanoplatelets</t>
+  </si>
+  <si>
+    <t>graphene nonoflakes</t>
+  </si>
+  <si>
+    <t>multilayer graphene</t>
+  </si>
+  <si>
+    <t>graphene nanoribbons</t>
+  </si>
+  <si>
+    <t>graphene nanoplatelets</t>
+  </si>
+  <si>
+    <t>graphene platelets</t>
+  </si>
+  <si>
+    <t>reduced graphene oxide</t>
+  </si>
+  <si>
+    <t>hot isostatic pressing</t>
+  </si>
+  <si>
+    <t>hot pressing</t>
+  </si>
+  <si>
+    <t>spark plasma sintering</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,16 +286,43 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -269,11 +330,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -282,6 +423,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,9 +751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FB4CB2-EB48-41B2-8B21-3A90089E5640}">
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,78 +1510,78 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>90.98801639861243</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>95</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
         <v>0.6</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <v>2.0119836013875747</v>
       </c>
-      <c r="G11" s="4">
-        <v>5</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="6">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6">
         <v>2</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="4">
-        <v>5</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="I11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="6">
+        <v>5</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="6">
         <v>2</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="6">
         <v>2</v>
       </c>
-      <c r="O11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P11" s="4">
+      <c r="O11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" s="6">
         <v>1625</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="6">
         <v>2</v>
       </c>
-      <c r="R11" s="4">
-        <v>50</v>
-      </c>
-      <c r="S11" s="4">
+      <c r="R11" s="6">
+        <v>50</v>
+      </c>
+      <c r="S11" s="6">
         <v>99.9</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="6">
         <v>65</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="6">
         <v>35</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="6">
         <v>27</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="X11" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4432,78 +4585,78 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+    <row r="52" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="7">
         <v>95</v>
       </c>
-      <c r="C52" s="3">
-        <v>0</v>
-      </c>
-      <c r="D52" s="4">
+      <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6">
         <v>0.6</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="6">
         <v>30</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="6">
         <v>14</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="6">
         <v>1</v>
       </c>
-      <c r="I52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="4">
-        <v>6</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L52" s="4">
-        <v>4</v>
-      </c>
-      <c r="M52" s="4" t="s">
+      <c r="I52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="6">
+        <v>6</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" s="6">
+        <v>4</v>
+      </c>
+      <c r="M52" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N52" s="4">
-        <v>5</v>
-      </c>
-      <c r="O52" s="4" t="s">
+      <c r="N52" s="6">
+        <v>5</v>
+      </c>
+      <c r="O52" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P52" s="4">
+      <c r="P52" s="6">
         <v>1700</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="Q52" s="6">
         <v>180</v>
       </c>
-      <c r="R52" s="4">
+      <c r="R52" s="6">
         <v>20</v>
       </c>
-      <c r="S52" s="4">
+      <c r="S52" s="6">
         <v>34</v>
       </c>
-      <c r="T52" s="4">
+      <c r="T52" s="6">
         <v>1</v>
       </c>
-      <c r="U52" s="4">
+      <c r="U52" s="6">
         <v>99</v>
       </c>
-      <c r="V52" s="4">
+      <c r="V52" s="6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="W52" s="4">
+      <c r="W52" s="6">
         <v>0.46</v>
       </c>
-      <c r="X52" s="4" t="s">
+      <c r="X52" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6835,4 +6988,209 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8422B2-69F7-45AA-9E3E-529819F8D438}">
+  <dimension ref="C2:G35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="17"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>